--- a/Burn_Rate_Model.xlsx
+++ b/Burn_Rate_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amrapalidixit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{293564C3-70CE-A045-B412-44838C2151F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65C3CAA-9571-2346-BF8A-DCCCE010F169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11820" yWindow="700" windowWidth="17740" windowHeight="17520" activeTab="2" xr2:uid="{63953CC8-057B-1C4E-9C58-56B708197456}"/>
   </bookViews>
@@ -898,9 +898,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -935,9 +938,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -959,9 +965,32 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="75000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="51000">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                    <a:alpha val="15000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -973,9 +1002,32 @@
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:gs>
+                  <a:gs pos="75000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="51000">
+                    <a:schemeClr val="accent1">
+                      <a:alpha val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="20000"/>
+                      <a:lumOff val="80000"/>
+                      <a:alpha val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -992,9 +1044,32 @@
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:gs>
+                  <a:gs pos="75000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="51000">
+                    <a:schemeClr val="accent1">
+                      <a:alpha val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="20000"/>
+                      <a:lumOff val="80000"/>
+                      <a:alpha val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1023,7 +1098,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1033,6 +1111,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1045,14 +1124,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1099,12 +1177,32 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2"/>
+                </a:gs>
+                <a:gs pos="75000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="51000">
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                    <a:alpha val="15000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1128,7 +1226,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1138,6 +1239,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1150,14 +1252,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1201,15 +1302,16 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="355"/>
+        <c:overlap val="-70"/>
         <c:axId val="1577137727"/>
         <c:axId val="1577125631"/>
       </c:barChart>
@@ -1244,7 +1346,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1295,7 +1400,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1311,7 +1419,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400">
+        <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1348,11 +1456,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1406,7 +1510,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="210">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1417,7 +1521,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1447,7 +1551,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1463,7 +1567,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1482,23 +1586,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1507,32 +1603,88 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -1547,30 +1699,59 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1592,15 +1773,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1615,8 +1794,8 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
@@ -1634,17 +1813,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1653,7 +1831,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1672,30 +1850,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1705,16 +1888,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1724,17 +1918,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1743,17 +1936,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1774,7 +1966,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -1782,7 +1974,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1795,6 +1987,19 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1802,10 +2007,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1826,7 +2031,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1835,14 +2040,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1872,8 +2076,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1896,14 +2100,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1914,12 +2112,12 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -2802,7 +3000,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.25"/>
